--- a/input_spreadsheets/Bangladesh/subregionSpreadsheets/Sylhet.xlsx
+++ b/input_spreadsheets/Bangladesh/subregionSpreadsheets/Sylhet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discworld/Documents/Research/Health/Optima/Nutrition/development/Nutrition/input_spreadsheets/Bangladesh/subregionSpreadsheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31380" yWindow="-2100" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="19" activeTab="19"/>
+    <workbookView xWindow="-6660" yWindow="-16060" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="21" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -32,13 +37,12 @@
     <sheet name="Interventions affected fraction" sheetId="23" r:id="rId23"/>
     <sheet name="Interventions mortality eff" sheetId="24" r:id="rId24"/>
     <sheet name="Interventions incidence eff" sheetId="25" r:id="rId25"/>
-    <sheet name="RR birth by type" sheetId="26" r:id="rId26"/>
-    <sheet name="birth distribution" sheetId="27" r:id="rId27"/>
-    <sheet name="time between births" sheetId="28" r:id="rId28"/>
-    <sheet name="RR birth by time" sheetId="29" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -263,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="78">
   <si>
     <t>indicators</t>
   </si>
@@ -497,36 +501,6 @@
   </si>
   <si>
     <t>Interventions</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>&lt;18 years</t>
-  </si>
-  <si>
-    <t>18-34 years</t>
-  </si>
-  <si>
-    <t>35-49 years</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>second or third</t>
-  </si>
-  <si>
-    <t>greater than third</t>
-  </si>
-  <si>
-    <t>&lt;18 months</t>
-  </si>
-  <si>
-    <t>18-23 months</t>
-  </si>
-  <si>
-    <t>&lt;24 months</t>
   </si>
 </sst>
 </file>
@@ -740,6 +714,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1285,12 +1264,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1306,7 +1285,7 @@
         <v>1071447.3383638849</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1314,7 +1293,7 @@
         <v>219738.10578513428</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +1301,7 @@
         <v>252556.9944139657</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1330,21 +1309,16 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1354,13 +1328,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1377,7 +1351,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1396,7 +1370,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1415,7 +1389,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1434,7 +1408,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1453,7 +1427,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1472,7 +1446,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1491,7 +1465,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
@@ -1510,7 +1484,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1529,117 +1503,112 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1651,9 +1620,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1667,7 +1636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>11.2</v>
       </c>
@@ -1683,11 +1652,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1699,9 +1663,9 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1721,7 +1685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1741,7 +1705,7 @@
         <v>2.0739240506329115</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1763,11 +1727,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1777,12 +1736,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -1802,7 +1761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1822,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1842,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1862,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1884,11 +1843,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1898,9 +1852,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1920,7 +1874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1942,11 +1896,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1956,9 +1905,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -1972,7 +1921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1988,11 +1937,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2002,12 +1946,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2027,7 +1971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2047,7 +1991,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2055,7 +1999,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2063,7 +2007,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2073,11 +2017,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2087,12 +2026,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -2112,7 +2051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -2132,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -2152,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -2172,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -2194,11 +2133,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2208,13 +2142,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2234,7 +2168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -2254,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2262,7 +2196,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2272,11 +2206,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2286,12 +2215,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2308,7 +2237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
@@ -2325,14 +2254,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2341,11 +2270,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2357,13 +2281,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2371,7 +2295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>2017</v>
       </c>
@@ -2379,7 +2303,7 @@
         <v>219530.85445682367</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2018</v>
       </c>
@@ -2387,7 +2311,7 @@
         <v>219153.3443213219</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2019</v>
       </c>
@@ -2395,7 +2319,7 @@
         <v>218588.55579972686</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2020</v>
       </c>
@@ -2403,7 +2327,7 @@
         <v>217825.75922176032</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2021</v>
       </c>
@@ -2411,7 +2335,7 @@
         <v>217107.5521816879</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>2022</v>
       </c>
@@ -2419,7 +2343,7 @@
         <v>216591.88681171663</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>2023</v>
       </c>
@@ -2427,7 +2351,7 @@
         <v>215868.32629723742</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2024</v>
       </c>
@@ -2435,7 +2359,7 @@
         <v>214941.9087029052</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2025</v>
       </c>
@@ -2443,7 +2367,7 @@
         <v>213813.91687156176</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2026</v>
       </c>
@@ -2451,7 +2375,7 @@
         <v>211841.15273132664</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2027</v>
       </c>
@@ -2459,7 +2383,7 @@
         <v>210529.07824331036</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>2028</v>
       </c>
@@ -2467,7 +2391,7 @@
         <v>209047.30213523857</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2029</v>
       </c>
@@ -2475,7 +2399,7 @@
         <v>207398.87863527355</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>2030</v>
       </c>
@@ -2486,11 +2410,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2498,11 +2417,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -2510,7 +2429,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2524,7 +2443,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2541,7 +2460,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2558,7 +2477,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2575,7 +2494,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2592,7 +2511,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2609,7 +2528,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2626,7 +2545,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2643,110 +2562,105 @@
       <c r="F8" s="13"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2758,7 +2672,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -2768,7 +2682,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2793,7 +2707,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2816,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2839,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2862,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2889,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2912,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2935,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2958,110 +2872,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3071,12 +2980,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -3096,7 +3005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3116,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>76</v>
       </c>
@@ -3136,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -3156,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>76</v>
       </c>
@@ -3175,11 +3084,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3189,12 +3093,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3217,7 +3121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3240,7 +3144,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3261,7 +3165,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3284,7 +3188,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3304,34 +3208,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3341,12 +3240,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3369,7 +3268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3392,7 +3291,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3413,7 +3312,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3436,7 +3335,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3456,34 +3355,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3491,14 +3385,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3521,7 +3415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3544,7 +3438,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3565,7 +3459,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3588,7 +3482,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3608,413 +3502,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.14</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5.4300000000000001E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1711</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.36070000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.2908</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1048</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
-        <v>0.2258</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.56979999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.03</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.77</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4026,9 +3536,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -4039,7 +3549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>39</v>
       </c>
@@ -4055,11 +3565,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4069,9 +3574,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4091,7 +3596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4111,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4131,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4151,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4171,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4191,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4211,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -4231,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4251,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4271,7 +3776,7 @@
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -4291,7 +3796,7 @@
         <v>0.2883</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -4311,7 +3816,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4331,7 +3836,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4351,7 +3856,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -4371,7 +3876,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4391,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4411,7 +3916,7 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4433,11 +3938,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4449,9 +3949,9 @@
       <selection activeCell="C10" sqref="C10:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -4474,7 +3974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -4497,7 +3997,7 @@
         <v>12.074005453948798</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4517,7 +4017,7 @@
         <v>15.825456628311011</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4537,7 +4037,7 @@
         <v>57.43249622547193</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4557,7 +4057,7 @@
         <v>22.869715526621036</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -4580,7 +4080,7 @@
         <v>49.024110473442548</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4600,7 +4100,7 @@
         <v>38.495126556009993</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4620,7 +4120,7 @@
         <v>11.249537614439118</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4640,7 +4140,7 @@
         <v>1.4879206574752211</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -4663,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -4683,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -4703,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -4728,11 +4228,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4742,9 +4237,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -4755,7 +4250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>3.1099999999999999E-2</v>
       </c>
@@ -4768,11 +4263,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4782,9 +4272,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4807,7 +4297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4830,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4850,7 +4340,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4870,7 +4360,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4890,7 +4380,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4913,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4933,7 +4423,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4953,7 +4443,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4973,7 +4463,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4996,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -5016,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -5036,7 +4526,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -5056,7 +4546,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5079,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5099,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -5119,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5139,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5162,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5182,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5202,7 +4692,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -5224,11 +4714,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5238,9 +4723,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5263,7 +4748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -5286,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -5306,7 +4791,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -5326,7 +4811,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -5346,7 +4831,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -5369,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -5389,7 +4874,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -5409,7 +4894,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -5429,7 +4914,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5452,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -5472,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -5492,7 +4977,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -5512,7 +4997,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5535,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5555,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -5575,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5595,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5618,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5638,7 +5123,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5658,7 +5143,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -5680,11 +5165,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5694,12 +5174,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5722,7 +5202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -5745,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
@@ -5765,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
@@ -5785,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -5805,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -5828,7 +5308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
@@ -5848,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -5868,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
@@ -5888,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5911,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -5931,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -5951,7 +5431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -5971,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5994,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -6014,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -6034,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -6054,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6077,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -6097,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -6117,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -6137,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -6160,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
@@ -6180,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -6200,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -6220,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -6243,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
@@ -6263,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
@@ -6283,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -6305,10 +5785,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/input_spreadsheets/Bangladesh/subregionSpreadsheets/Sylhet.xlsx
+++ b/input_spreadsheets/Bangladesh/subregionSpreadsheets/Sylhet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discworld/Documents/Research/Health/Optima/Nutrition/development/Nutrition/input_spreadsheets/Bangladesh/subregionSpreadsheets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-6660" yWindow="-16060" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="21" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -38,13 +33,13 @@
     <sheet name="Interventions mortality eff" sheetId="24" r:id="rId24"/>
     <sheet name="Interventions incidence eff" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1260,16 +1255,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1285,7 +1280,7 @@
         <v>1071447.3383638849</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1293,7 +1288,7 @@
         <v>219738.10578513428</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1301,24 +1296,29 @@
         <v>252556.9944139657</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>0.251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1328,13 +1328,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1503,112 +1503,117 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1620,9 +1625,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1636,7 +1641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>11.2</v>
       </c>
@@ -1652,6 +1657,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1663,9 +1673,9 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1685,7 +1695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1705,7 +1715,7 @@
         <v>2.0739240506329115</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1727,6 +1737,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1736,12 +1751,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -1761,7 +1776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1781,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1801,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1821,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1843,6 +1858,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1852,9 +1872,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1874,7 +1894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1896,6 +1916,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1905,9 +1930,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -1921,7 +1946,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1937,6 +1962,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1946,12 +1976,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -1971,7 +2001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -1991,7 +2021,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1999,7 +2029,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2007,7 +2037,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2017,6 +2047,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2026,12 +2061,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -2051,7 +2086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -2071,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -2091,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -2111,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -2133,6 +2168,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2142,13 +2182,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2168,7 +2208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -2188,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2196,7 +2236,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2206,6 +2246,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2215,12 +2260,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2237,7 +2282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
@@ -2254,14 +2299,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2270,6 +2315,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2281,13 +2331,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2295,7 +2345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>2017</v>
       </c>
@@ -2303,7 +2353,7 @@
         <v>219530.85445682367</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5">
         <v>2018</v>
       </c>
@@ -2311,7 +2361,7 @@
         <v>219153.3443213219</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5">
         <v>2019</v>
       </c>
@@ -2319,7 +2369,7 @@
         <v>218588.55579972686</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5">
         <v>2020</v>
       </c>
@@ -2327,7 +2377,7 @@
         <v>217825.75922176032</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5">
         <v>2021</v>
       </c>
@@ -2335,7 +2385,7 @@
         <v>217107.5521816879</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5">
         <v>2022</v>
       </c>
@@ -2343,7 +2393,7 @@
         <v>216591.88681171663</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="5">
         <v>2023</v>
       </c>
@@ -2351,7 +2401,7 @@
         <v>215868.32629723742</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="5">
         <v>2024</v>
       </c>
@@ -2359,7 +2409,7 @@
         <v>214941.9087029052</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="5">
         <v>2025</v>
       </c>
@@ -2367,7 +2417,7 @@
         <v>213813.91687156176</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="5">
         <v>2026</v>
       </c>
@@ -2375,7 +2425,7 @@
         <v>211841.15273132664</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="5">
         <v>2027</v>
       </c>
@@ -2383,7 +2433,7 @@
         <v>210529.07824331036</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="5">
         <v>2028</v>
       </c>
@@ -2391,7 +2441,7 @@
         <v>209047.30213523857</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="5">
         <v>2029</v>
       </c>
@@ -2399,7 +2449,7 @@
         <v>207398.87863527355</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="5">
         <v>2030</v>
       </c>
@@ -2410,6 +2460,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2421,7 +2476,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -2429,7 +2484,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2443,7 +2498,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2460,7 +2515,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2477,7 +2532,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2494,7 +2549,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2511,7 +2566,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2528,7 +2583,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2545,7 +2600,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2562,105 +2617,110 @@
       <c r="F8" s="13"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2672,7 +2732,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -2682,7 +2742,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2707,7 +2767,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2730,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2753,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2776,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2785,25 +2845,25 @@
       </c>
       <c r="C5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.251</v>
+        <v>0.373</v>
       </c>
       <c r="D5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.251</v>
+        <v>0.373</v>
       </c>
       <c r="E5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.251</v>
+        <v>0.373</v>
       </c>
       <c r="F5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.251</v>
+        <v>0.373</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2826,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2849,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2872,105 +2932,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2980,12 +3045,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -3005,7 +3070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3025,27 +3090,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="14">
         <f>demographics!$B$5</f>
-        <v>0.251</v>
+        <v>0.373</v>
       </c>
       <c r="D3" s="14">
         <f>demographics!$B$5</f>
-        <v>0.251</v>
+        <v>0.373</v>
       </c>
       <c r="E3" s="14">
         <f>demographics!$B$5</f>
-        <v>0.251</v>
+        <v>0.373</v>
       </c>
       <c r="F3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -3065,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>76</v>
       </c>
@@ -3084,6 +3149,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3093,12 +3163,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3121,7 +3191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3144,7 +3214,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3165,7 +3235,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3188,7 +3258,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3208,29 +3278,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3240,12 +3315,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3268,7 +3343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3291,7 +3366,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3312,7 +3387,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3335,7 +3410,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3355,29 +3430,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3385,14 +3465,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3415,7 +3495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3438,7 +3518,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3459,7 +3539,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3482,7 +3562,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3502,29 +3582,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3536,9 +3621,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -3549,7 +3634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14">
       <c r="A2" s="7">
         <v>39</v>
       </c>
@@ -3565,6 +3650,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3574,9 +3664,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3596,7 +3686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3616,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3636,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3656,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3676,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3696,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3716,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3736,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3756,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3776,7 +3866,7 @@
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3796,7 +3886,7 @@
         <v>0.2883</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3816,7 +3906,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3836,7 +3926,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3856,7 +3946,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3876,7 +3966,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3896,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3916,7 +4006,7 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3938,6 +4028,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3949,9 +4044,9 @@
       <selection activeCell="C10" sqref="C10:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -3974,7 +4069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -3997,7 +4092,7 @@
         <v>12.074005453948798</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4017,7 +4112,7 @@
         <v>15.825456628311011</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4037,7 +4132,7 @@
         <v>57.43249622547193</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4057,7 +4152,7 @@
         <v>22.869715526621036</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -4080,7 +4175,7 @@
         <v>49.024110473442548</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4100,7 +4195,7 @@
         <v>38.495126556009993</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4120,7 +4215,7 @@
         <v>11.249537614439118</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4140,7 +4235,7 @@
         <v>1.4879206574752211</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -4163,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -4183,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -4203,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -4228,6 +4323,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4237,9 +4337,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -4250,7 +4350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>3.1099999999999999E-2</v>
       </c>
@@ -4263,6 +4363,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4272,9 +4377,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4297,7 +4402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4320,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4340,7 +4445,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4360,7 +4465,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4380,7 +4485,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4403,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4423,7 +4528,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4443,7 +4548,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4463,7 +4568,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4486,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -4506,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4526,7 +4631,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -4546,7 +4651,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4569,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -4589,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -4609,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -4629,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4652,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -4672,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -4692,7 +4797,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -4714,6 +4819,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4723,9 +4833,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4748,7 +4858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4771,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4791,7 +4901,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4811,7 +4921,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4831,7 +4941,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4854,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4874,7 +4984,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4894,7 +5004,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4914,7 +5024,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4937,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -4957,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4977,7 +5087,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -4997,7 +5107,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5020,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5040,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -5060,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5080,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5103,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5123,7 +5233,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5143,7 +5253,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -5165,6 +5275,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5174,12 +5289,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5202,7 +5317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -5225,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
@@ -5245,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
@@ -5265,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -5285,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -5308,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
@@ -5328,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -5348,7 +5463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
@@ -5368,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5391,7 +5506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -5411,7 +5526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -5431,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -5451,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5474,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -5494,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -5514,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -5534,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -5557,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -5577,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -5597,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -5617,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -5640,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
@@ -5660,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -5680,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -5700,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -5723,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
@@ -5743,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
@@ -5763,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -5785,5 +5900,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>